--- a/QA/testcases/LLS/Pharmacy/010_L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/010_L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
   <si>
     <t>Step No</t>
   </si>
@@ -575,45 +575,6 @@
   </si>
   <si>
     <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>AGREE_SUBMIT_BUTTON</t>
@@ -990,10 +951,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1032,7 +993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,17 +1008,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,6 +1038,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1086,7 +1069,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,21 +1078,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,9 +1092,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,38 +1114,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,7 +1163,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,180 +1343,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1414,17 +1375,6 @@
       <left style="thin">
         <color theme="4" tint="0.399975585192419"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.399975585192419"/>
@@ -1493,21 +1443,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1525,8 +1460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,24 +1481,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1575,130 +1525,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1711,7 +1661,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1721,7 +1671,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,10 +2114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4107,371 +4057,265 @@
       <c r="A93" s="10">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H93" s="16"/>
+      <c r="B93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9">
-        <v>5</v>
-      </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="17"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11">
+        <v>10</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H95" s="16"/>
+      <c r="B95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H96" s="17"/>
+      <c r="B96" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>2</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H97" s="16"/>
+      <c r="B97" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H98" s="17"/>
+      <c r="B98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>2</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>10</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="16"/>
+      <c r="B99" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H100" s="17"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>2</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H101" s="16"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="9">
+        <v>10</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H102" s="17"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>2</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="16"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
+        <v>5</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H104" s="17"/>
+      <c r="B104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="H105" s="16"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="10">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="B105" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="9">
-        <v>10</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="17"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="10">
-        <v>106</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H107" s="16"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="10">
-        <v>107</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9">
-        <v>5</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="10">
-        <v>108</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="10">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9">
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9">
         <v>4</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B30 B44 B45 B46 B55 B56 B57 B58 B68 B69 B70 B71 B72 B73 B76 B93 B94 B103 B105 B106 B107 B108 B13:B19 B20:B28 B31:B37 B38:B43 B51:B54 B63:B65 B66:B67 B74:B75 B77:B78 B83:B90 B91:B92 B95:B99 B100:B101 B109:B110 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C14 B29 B30 B44 B45 B46 B55 B56 B57 B58 B68 B69 B70 B71 B72 B73 B76 B98 B100 B101 B102 B103 B13:B19 B20:B28 B31:B37 B38:B43 B51:B54 B63:B65 B66:B67 B74:B75 B77:B78 B83:B90 B91:B92 B93:B94 B95:B96 B104:B105 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -4492,7 +4336,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104 C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 C99">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4523,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4531,20 +4375,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4555,20 +4399,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -4576,47 +4420,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -4626,12 +4470,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4641,45 +4485,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -4689,7 +4533,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4699,152 +4543,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -4854,209 +4698,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5066,12 +4910,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="3:3">
